--- a/data/trans_dic/P36BPD04_2023_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_2023_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,96; 96,87</t>
+          <t>90,87; 96,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,63; 96,4</t>
+          <t>87,29; 96,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,85; 95,83</t>
+          <t>91,16; 95,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,03; 93,62</t>
+          <t>86,77; 93,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,83; 96,33</t>
+          <t>92,86; 96,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,66; 94,59</t>
+          <t>90,79; 94,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,88; 94,81</t>
+          <t>88,58; 94,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,0; 96,33</t>
+          <t>91,81; 96,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,24; 94,89</t>
+          <t>91,27; 94,98</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>93,89; 99,24</t>
+          <t>93,08; 99,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,67; 98,83</t>
+          <t>95,4; 98,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,73; 98,59</t>
+          <t>95,8; 98,52</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,38; 100,0</t>
+          <t>96,94; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>97,72; 99,82</t>
+          <t>98,02; 99,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>98,08; 99,65</t>
+          <t>98,2; 99,68</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>93,54; 98,46</t>
+          <t>93,7; 98,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,1; 98,39</t>
+          <t>93,92; 98,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,77; 97,89</t>
+          <t>94,63; 97,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>82,49; 90,64</t>
+          <t>82,87; 91,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,41; 88,57</t>
+          <t>37,52; 88,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,85; 88,55</t>
+          <t>45,36; 88,52</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>96,59; 99,27</t>
+          <t>96,51; 99,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>96,89; 98,66</t>
+          <t>96,81; 98,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,08; 98,79</t>
+          <t>96,95; 98,71</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>92,84; 95,4</t>
+          <t>92,65; 95,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>72,57; 95,05</t>
+          <t>72,85; 95,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>83,25; 94,69</t>
+          <t>81,8; 94,62</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume fruta o zumos al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>294247</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>270968</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>565214</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>283016; 301267</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>252819; 278455</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>547952; 576525</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1029</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>470881</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>488550</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>959431</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>449793; 486114</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>478211; 496366</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>938218; 975881</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>290795</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>326983</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>617778</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>279949; 299994</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>317674; 333412</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>604289; 628869</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>304931</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>463509</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>768438</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>290937; 309948</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>453856; 469846</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>755152; 776645</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>177294</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>206452</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>383746</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>173281; 178742</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>204156; 207759</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>380050; 385765</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>260266</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>248377</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>508643</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>252649; 265264</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>241425; 252333</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>498400; 515558</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>546481</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>565472</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1111953</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>516327; 567322</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>318665; 751888</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>667894; 1303379</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>909359</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>702354</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1611714</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>896283; 921265</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>694842; 707828</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1596284; 1625236</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>8311</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3254253</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3272664</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>6526917</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>3204447; 3297687</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2665395; 3477676</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>5822062; 6734243</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>